--- a/files/components.xlsx
+++ b/files/components.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ralphroossen/Github-repos/ageofdust/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ralphroossen/Github-repos/ageofdust/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404829D1-9AB7-3044-9D3A-5916DF33F9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA0EA20-41B9-084B-8D7E-78DE22B752CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="460" windowWidth="36080" windowHeight="17000" xr2:uid="{F1C1B904-D015-A44E-AAE6-E5F7FD6E4450}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="17000" xr2:uid="{F1C1B904-D015-A44E-AAE6-E5F7FD6E4450}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="84">
   <si>
     <t>order nr</t>
   </si>
@@ -44,12 +44,6 @@
     <t>component</t>
   </si>
   <si>
-    <t>Reed relay module 3-5V</t>
-  </si>
-  <si>
-    <t>Active buzzer module 5V</t>
-  </si>
-  <si>
     <t>Ball switch/tilt sensor module 3-5V</t>
   </si>
   <si>
@@ -95,21 +89,12 @@
     <t>Voltage regulator module - compact</t>
   </si>
   <si>
-    <t>000765</t>
-  </si>
-  <si>
-    <t>001350</t>
-  </si>
-  <si>
     <t>000769</t>
   </si>
   <si>
     <t>001337</t>
   </si>
   <si>
-    <t>000200</t>
-  </si>
-  <si>
     <t>000887</t>
   </si>
   <si>
@@ -134,9 +119,6 @@
     <t>Postage Tinytronics</t>
   </si>
   <si>
-    <t>https://www.tinytronics.nl/shop/en/switches/magnetic-switches/reed-relay-module-3-5v</t>
-  </si>
-  <si>
     <t>https://www.tinytronics.nl/shop/en/switches/relays/5v-relay-1-channel-high-active</t>
   </si>
   <si>
@@ -149,12 +131,6 @@
     <t>2-5V</t>
   </si>
   <si>
-    <t>https://www.tinytronics.nl/shop/en/audio/speakers/buzzers/active-buzzer-module-5v</t>
-  </si>
-  <si>
-    <t>price &gt;10</t>
-  </si>
-  <si>
     <t>price per 1</t>
   </si>
   <si>
@@ -179,18 +155,6 @@
     <t>5-12V</t>
   </si>
   <si>
-    <t>https://www.tinytronics.nl/shop/en/audio/speakers/buzzers/active-buzzer-3v-24v-intermittent</t>
-  </si>
-  <si>
-    <t>3-24V</t>
-  </si>
-  <si>
-    <t>25 mA*</t>
-  </si>
-  <si>
-    <t>30mA max*</t>
-  </si>
-  <si>
     <t>https://www.tinytronics.nl/shop/en/audio/speakers/buzzers/piezo-electronic-buzzer-with-soldered-wires-35mm</t>
   </si>
   <si>
@@ -248,9 +212,6 @@
     <t>002909</t>
   </si>
   <si>
-    <t>per 10 kits</t>
-  </si>
-  <si>
     <t>Stereo audio amp w volume control</t>
   </si>
   <si>
@@ -275,15 +236,6 @@
     <t xml:space="preserve">walkie talkie </t>
   </si>
   <si>
-    <t>https://flyingtiger.com/nl/products/walkie-talkie-set-3034395?variant=41188458397894&amp;srsltid=Ad5pg_E7P2uBBKjFlA-3Iy8jgljKbblaxprOBdHRD30Sq0cDsXl1De_tzrs&amp;currency=eur</t>
-  </si>
-  <si>
-    <t>3034395</t>
-  </si>
-  <si>
-    <t>Postage Flying tiger</t>
-  </si>
-  <si>
     <t>Digispark to control df player?</t>
   </si>
   <si>
@@ -299,15 +251,6 @@
     <t>000299</t>
   </si>
   <si>
-    <t>4.5V (3x 1.5V AA)</t>
-  </si>
-  <si>
-    <t>Active buzzer</t>
-  </si>
-  <si>
-    <t>or store pickup?</t>
-  </si>
-  <si>
     <t>70mA max out</t>
   </si>
   <si>
@@ -326,7 +269,22 @@
     <t>* =  require transistor or relay</t>
   </si>
   <si>
-    <t>total when buying 1 each</t>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>https://www.lidl.nl/p/silvercrest-walkie-talkies-voor-kinderen/p100359077002?mktc=shopping</t>
+  </si>
+  <si>
+    <t>6 x AAA (LR03)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12x AAA (LR02 Batteries) </t>
+  </si>
+  <si>
+    <t>Postage Lidl</t>
   </si>
 </sst>
 </file>
@@ -334,9 +292,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="&quot;€&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;€&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -377,14 +335,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF0432FF"/>
       <name val="Calibri"/>
@@ -409,11 +359,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -427,42 +376,49 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -780,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0861264C-AD37-A740-8F85-E647F2523065}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -791,582 +747,562 @@
     <col min="1" max="1" width="32.33203125" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="18" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="18" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="17" customWidth="1"/>
+    <col min="5" max="6" width="10.5" style="17" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="F4" s="12">
+        <f>D4*E4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="17">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" ref="F5:F23" si="0">D5*E5</f>
+        <v>4</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="17">
+        <v>5</v>
+      </c>
+      <c r="E6" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="13">
+        <v>6</v>
+      </c>
+      <c r="F8" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="13">
+        <v>5</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="17">
+        <v>2</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="D11" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="13">
-        <v>2</v>
-      </c>
-      <c r="E4" s="13">
-        <f>D4</f>
-        <v>2</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="E5" s="13">
-        <v>2.25</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="E11" s="12">
         <v>1.5</v>
       </c>
-      <c r="E6" s="13">
-        <v>1.4</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F11" s="12">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="13">
-        <v>2</v>
-      </c>
-      <c r="E7" s="13">
-        <f>D7</f>
-        <v>2</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="13">
-        <v>7.5</v>
-      </c>
-      <c r="E8" s="13">
-        <v>7</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="14">
-        <v>6</v>
-      </c>
-      <c r="E10" s="14">
-        <f>D10</f>
-        <v>6</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="14">
-        <v>5</v>
-      </c>
-      <c r="E11" s="14">
-        <f>D11</f>
-        <v>5</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="E12" s="13">
-        <f>D12</f>
-        <v>1.5</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="7"/>
+      <c r="D12" s="17">
+        <v>4</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="17">
+        <v>2</v>
+      </c>
+      <c r="E13" s="12">
+        <v>2</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="17">
+        <v>2</v>
+      </c>
+      <c r="E14" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="17">
+        <v>2</v>
+      </c>
+      <c r="E15" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="17">
+        <v>2</v>
+      </c>
+      <c r="E16" s="12">
+        <v>2</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="20">
+        <v>2</v>
+      </c>
+      <c r="E17" s="14">
+        <v>4</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="17">
+        <v>2</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="E13" s="13">
-        <f>D13</f>
-        <v>1.5</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="8" t="s">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" t="s">
         <v>49</v>
       </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="13">
-        <v>1</v>
-      </c>
-      <c r="E14" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="D15" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="13">
-        <f>D15</f>
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="13">
-        <v>2</v>
-      </c>
-      <c r="E16" s="13">
-        <f>D16</f>
-        <v>2</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="8" t="s">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="17">
+        <v>2</v>
+      </c>
+      <c r="E20" s="12">
+        <v>5</v>
+      </c>
+      <c r="F20" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="20">
+        <v>10</v>
+      </c>
+      <c r="E21" s="14">
+        <v>3</v>
+      </c>
+      <c r="F21" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="17">
+        <v>10</v>
+      </c>
+      <c r="E22" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="F22" s="12">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="17">
+        <v>2</v>
+      </c>
+      <c r="E23" s="12">
+        <v>29.99</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="0"/>
+        <v>59.98</v>
+      </c>
+      <c r="H23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="15">
+        <v>4.99</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="E17" s="13">
-        <v>2.25</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="E18" s="13">
-        <v>2.25</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="13">
-        <v>2</v>
-      </c>
-      <c r="E19" s="13">
-        <f>D19</f>
-        <v>2</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="15">
-        <v>4</v>
-      </c>
-      <c r="E20" s="15">
-        <f>D20</f>
-        <v>4</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="E21" s="13">
-        <f>D21</f>
-        <v>1.5</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="15">
-        <v>0.75</v>
-      </c>
-      <c r="E22" s="15">
-        <f>D22</f>
-        <v>0.75</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="13">
-        <v>5</v>
-      </c>
-      <c r="E23" s="13">
-        <f>D23</f>
-        <v>5</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="15">
-        <v>3</v>
-      </c>
-      <c r="E24" s="15">
-        <v>2.75</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="13">
-        <v>3.5</v>
-      </c>
-      <c r="E25" s="13">
-        <f>D25</f>
-        <v>3.5</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="13">
-        <v>10</v>
-      </c>
-      <c r="E26" s="13">
-        <f>D26</f>
-        <v>10</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-    </row>
-    <row r="28" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="E28" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="16">
-        <v>6</v>
-      </c>
-      <c r="E29" s="16">
-        <v>6</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D31" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="17">
-        <f>SUM(D4:D31)</f>
-        <v>76.25</v>
-      </c>
-      <c r="E32" s="17">
-        <f>SUM(E4:E23)*10</f>
-        <v>498.49999999999994</v>
-      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" xr:uid="{9C1D4154-9F45-2147-BDDD-D02B5CAA70AA}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="F10:F26 F4:F8" numberStoredAsText="1"/>
+    <ignoredError sqref="G8:G11 G4 G5:G6 G12:G22" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/files/components.xlsx
+++ b/files/components.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ralphroossen/Github-repos/ageofdust/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA0EA20-41B9-084B-8D7E-78DE22B752CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5BE273-9B07-644D-8C1F-DA76B920E289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="17000" xr2:uid="{F1C1B904-D015-A44E-AAE6-E5F7FD6E4450}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
   <si>
     <t>order nr</t>
   </si>
@@ -59,18 +59,12 @@
     <t>Hall effect switch module</t>
   </si>
   <si>
-    <t>NE555 Pulse generator module</t>
-  </si>
-  <si>
     <t>Piezo w soldered wires 35 mm</t>
   </si>
   <si>
     <t>Vibration sensor module 3-5V</t>
   </si>
   <si>
-    <t>Rain sensor</t>
-  </si>
-  <si>
     <t xml:space="preserve">Light sensormodule </t>
   </si>
   <si>
@@ -92,18 +86,12 @@
     <t>000769</t>
   </si>
   <si>
-    <t>001337</t>
-  </si>
-  <si>
     <t>000887</t>
   </si>
   <si>
     <t>000752</t>
   </si>
   <si>
-    <t>000372</t>
-  </si>
-  <si>
     <t>000208</t>
   </si>
   <si>
@@ -149,24 +137,12 @@
     <t>https://www.tinytronics.nl/shop/en/sensors/magnetic-field/hall-effect-switch-module</t>
   </si>
   <si>
-    <t>https://www.tinytronics.nl/shop/en/communication-and-signals/signal-generators-and-dacs/ne555-frequency-adjustable-pulse-generator</t>
-  </si>
-  <si>
-    <t>5-12V</t>
-  </si>
-  <si>
     <t>https://www.tinytronics.nl/shop/en/audio/speakers/buzzers/piezo-electronic-buzzer-with-soldered-wires-35mm</t>
   </si>
   <si>
     <t>https://www.tinytronics.nl/shop/en/sensors/acceleration-rotation/vibration-sensor-module-3-5v-sw-18010p</t>
   </si>
   <si>
-    <t>3.3-5V</t>
-  </si>
-  <si>
-    <t>https://www.tinytronics.nl/shop/en/sensors/liquid/rain-sensor</t>
-  </si>
-  <si>
     <t>https://www.tinytronics.nl/shop/en/sensors/optical/light-and-color/red-laser-sensor-module</t>
   </si>
   <si>
@@ -278,13 +254,46 @@
     <t>https://www.lidl.nl/p/silvercrest-walkie-talkies-voor-kinderen/p100359077002?mktc=shopping</t>
   </si>
   <si>
-    <t>6 x AAA (LR03)</t>
-  </si>
-  <si>
     <t xml:space="preserve">12x AAA (LR02 Batteries) </t>
   </si>
   <si>
     <t>Postage Lidl</t>
+  </si>
+  <si>
+    <t>4.5V (3 x AAA per walkie)</t>
+  </si>
+  <si>
+    <t>8 ohm speaker</t>
+  </si>
+  <si>
+    <t>Jack connector 3.5 solderable</t>
+  </si>
+  <si>
+    <t>jumpers MM</t>
+  </si>
+  <si>
+    <t>jumpers FF</t>
+  </si>
+  <si>
+    <t>jumpers MF</t>
+  </si>
+  <si>
+    <t>solid core hookup wire</t>
+  </si>
+  <si>
+    <t>shrinktube</t>
+  </si>
+  <si>
+    <t>stranded hookup wire</t>
+  </si>
+  <si>
+    <t>500K pot (or 250K!)</t>
+  </si>
+  <si>
+    <t>conductive materials</t>
+  </si>
+  <si>
+    <t>some regular switches</t>
   </si>
 </sst>
 </file>
@@ -736,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0861264C-AD37-A740-8F85-E647F2523065}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -758,19 +767,19 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>0</v>
@@ -781,7 +790,7 @@
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="11"/>
@@ -790,13 +799,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E4" s="12">
         <v>2.5</v>
@@ -806,10 +815,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -826,14 +835,14 @@
         <v>2</v>
       </c>
       <c r="F5" s="12">
-        <f t="shared" ref="F5:F23" si="0">D5*E5</f>
+        <f t="shared" ref="F5:F21" si="0">D5*E5</f>
         <v>4</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -841,7 +850,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D6" s="17">
         <v>5</v>
@@ -854,15 +863,15 @@
         <v>37.5</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12">
@@ -872,10 +881,10 @@
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="13">
@@ -886,15 +895,15 @@
         <v>0</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="13">
@@ -905,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -916,7 +925,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" s="17">
         <v>2</v>
@@ -929,60 +938,60 @@
         <v>3</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="B11" s="7"/>
       <c r="D11" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E11" s="12">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F11" s="12">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="D12" s="17">
+        <v>2</v>
+      </c>
+      <c r="E12" s="12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
       <c r="G12" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -992,168 +1001,168 @@
         <v>2</v>
       </c>
       <c r="E13" s="12">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F13" s="12">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D14" s="17">
         <v>2</v>
       </c>
       <c r="E14" s="12">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="F14" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="17">
+      <c r="B15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="20">
         <v>2</v>
       </c>
-      <c r="E15" s="12">
-        <v>2.5</v>
+      <c r="E15" s="14">
+        <v>4</v>
       </c>
       <c r="F15" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" t="s">
-        <v>34</v>
+        <v>8</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>16</v>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
       </c>
       <c r="D16" s="17">
         <v>2</v>
       </c>
       <c r="E16" s="12">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F16" s="12">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="20">
-        <v>2</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D17" s="20"/>
       <c r="E17" s="14">
-        <v>4</v>
+        <v>0.75</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="17">
         <v>2</v>
       </c>
       <c r="E18" s="12">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="F18" s="12">
         <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="20">
+        <v>10</v>
+      </c>
+      <c r="E19" s="14">
         <v>3</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="14">
-        <v>0.75</v>
-      </c>
       <c r="F19" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" t="s">
-        <v>49</v>
+        <v>30</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1161,148 +1170,201 @@
         <v>55</v>
       </c>
       <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="17">
+        <v>10</v>
+      </c>
+      <c r="E20" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="F20" s="12">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="17">
+      <c r="H20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="17">
         <v>2</v>
       </c>
-      <c r="E20" s="12">
-        <v>5</v>
-      </c>
-      <c r="F20" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="20">
-        <v>10</v>
-      </c>
-      <c r="E21" s="14">
-        <v>3</v>
+      <c r="E21" s="12">
+        <v>29.99</v>
       </c>
       <c r="F21" s="12">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="17">
-        <v>10</v>
-      </c>
-      <c r="E22" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="F22" s="12">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" t="s">
+        <v>59.98</v>
+      </c>
+      <c r="H21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="17">
-        <v>2</v>
-      </c>
-      <c r="E23" s="12">
-        <v>29.99</v>
-      </c>
-      <c r="F23" s="12">
-        <f t="shared" si="0"/>
-        <v>59.98</v>
-      </c>
-      <c r="H23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="D28" s="19"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="15">
+      <c r="D30" s="19"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+    </row>
+    <row r="35" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="15">
         <v>2.5</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="15">
+      <c r="F35" s="15"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="15">
         <v>4.99</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="G8:G11 G4 G5:G6 G12:G22" numberStoredAsText="1"/>
+    <ignoredError sqref="G8:G10 G4 G5:G6 G11:G12 G13:G20" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/files/components.xlsx
+++ b/files/components.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ralphroossen/Github-repos/ageofdust/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5BE273-9B07-644D-8C1F-DA76B920E289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366693C2-7087-5D46-8105-B03015C99A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="17000" xr2:uid="{F1C1B904-D015-A44E-AAE6-E5F7FD6E4450}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="100">
   <si>
     <t>order nr</t>
   </si>
@@ -188,15 +188,6 @@
     <t>002909</t>
   </si>
   <si>
-    <t>Stereo audio amp w volume control</t>
-  </si>
-  <si>
-    <t>000054</t>
-  </si>
-  <si>
-    <t>https://www.tinytronics.nl/shop/en/audio/amplifiers/2x3w-stereo-audio-amplifier-mini-5v-pam8403-volume-control-v2</t>
-  </si>
-  <si>
     <t>https://www.tinytronics.nl/shop/en/audio/accessories/others/voice-recording-module-with-speaker-isd1820</t>
   </si>
   <si>
@@ -294,6 +285,54 @@
   </si>
   <si>
     <t>some regular switches</t>
+  </si>
+  <si>
+    <t>up to 400mA*</t>
+  </si>
+  <si>
+    <t>Velleman PMK190'1 amplifier</t>
+  </si>
+  <si>
+    <t>6-14V</t>
+  </si>
+  <si>
+    <t>https://display-elektronica.nl/Webwinkel-Product-201167391/MK190-2X5W-VERSTERKER-VOOR-MP3-SPELER.html</t>
+  </si>
+  <si>
+    <t>MK190</t>
+  </si>
+  <si>
+    <t>Postage Display Elektronica</t>
+  </si>
+  <si>
+    <t>https://www.tinytronics.nl/shop/en/power/voltage-converters/buck-(step-down)-converters/dc-dc-ajustable-step-down-buck-converter-lm2596-3a</t>
+  </si>
+  <si>
+    <t>DC DC step down converter</t>
+  </si>
+  <si>
+    <t>000073</t>
+  </si>
+  <si>
+    <t>4-40V in, 1.3-35V out</t>
+  </si>
+  <si>
+    <t>1A without cooling (3A with)</t>
+  </si>
+  <si>
+    <t>5.5V 100mA</t>
+  </si>
+  <si>
+    <t>100mA</t>
+  </si>
+  <si>
+    <t>Seeed studio solar panel (not regulated)</t>
+  </si>
+  <si>
+    <t>https://www.tinytronics.nl/shop/nl/power/zonne-energie/zonnepanelen/seeed-studio-zonnepaneel-5.5v-100ma-55x70mm-met-jst-ph-connector</t>
+  </si>
+  <si>
+    <t>001784</t>
   </si>
 </sst>
 </file>
@@ -351,12 +390,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -371,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -425,6 +470,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,17 +794,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0861264C-AD37-A740-8F85-E647F2523065}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="8.83203125" style="17" customWidth="1"/>
     <col min="5" max="6" width="10.5" style="17" customWidth="1"/>
     <col min="7" max="7" width="11.83203125" style="4" customWidth="1"/>
@@ -767,19 +816,19 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>0</v>
@@ -790,7 +839,7 @@
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="11"/>
@@ -805,7 +854,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E4" s="12">
         <v>2.5</v>
@@ -835,7 +884,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="12">
-        <f t="shared" ref="F5:F21" si="0">D5*E5</f>
+        <f t="shared" ref="F5:F35" si="0">D5*E5</f>
         <v>4</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -871,7 +920,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12">
@@ -881,10 +930,10 @@
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="13">
@@ -895,15 +944,15 @@
         <v>0</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="13">
@@ -914,10 +963,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1100,7 +1149,7 @@
         <v>42</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="14">
@@ -1141,28 +1190,28 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="17">
+        <v>10</v>
+      </c>
+      <c r="E19" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" t="s">
         <v>51</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="20">
-        <v>10</v>
-      </c>
-      <c r="E19" s="14">
-        <v>3</v>
-      </c>
-      <c r="F19" s="12">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1170,45 +1219,36 @@
         <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>72</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="D20" s="17">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E20" s="12">
-        <v>3.5</v>
+        <v>29.99</v>
       </c>
       <c r="F20" s="12">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>56</v>
+        <v>59.98</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="17">
-        <v>2</v>
-      </c>
-      <c r="E21" s="12">
-        <v>29.99</v>
-      </c>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="12">
         <f t="shared" si="0"/>
-        <v>59.98</v>
-      </c>
-      <c r="H21" t="s">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -1216,155 +1256,261 @@
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="F22" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="F23" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="F24" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
+      <c r="F25" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
+      <c r="F26" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="F27" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="F28" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
+      <c r="F29" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
+      <c r="F30" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
+      <c r="F31" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
+      <c r="F32" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G32" s="8"/>
     </row>
     <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-    </row>
-    <row r="35" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+      <c r="D33" s="19">
+        <v>1</v>
+      </c>
+      <c r="E33" s="13">
+        <v>9.99</v>
+      </c>
+      <c r="F33" s="12">
+        <f t="shared" si="0"/>
+        <v>9.99</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="9" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="20">
+        <v>10</v>
+      </c>
+      <c r="E34" s="14">
+        <v>3</v>
+      </c>
+      <c r="F34" s="14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="20">
+        <v>10</v>
+      </c>
+      <c r="E35" s="14">
+        <v>4.25</v>
+      </c>
+      <c r="F35" s="14">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="15">
+      <c r="D37" s="21"/>
+      <c r="E37" s="15">
         <v>2.5</v>
       </c>
-      <c r="F35" s="15"/>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="15">
+      <c r="F37" s="15"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="15">
         <v>4.99</v>
       </c>
-      <c r="F36" s="15"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C39" s="1" t="s">
+      <c r="A39" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C41" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="G8:G10 G4 G5:G6 G11:G12 G13:G20" numberStoredAsText="1"/>
+    <ignoredError sqref="G8:G10 G4 G5:G6 G11:G12 G13:G18 G19" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
